--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_22_9.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_22_9.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1273424.158395571</v>
+        <v>-1276283.99063084</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673431</v>
+        <v>603248.4937673433</v>
       </c>
     </row>
     <row r="9">
@@ -662,22 +662,22 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>187.52558716632</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>4.102603652598077</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>13.09783323005805</v>
       </c>
       <c r="H2" t="n">
-        <v>187.52558716632</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>125.4713171199747</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,10 +707,10 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>147.9721002934385</v>
+        <v>158.7758131900531</v>
       </c>
       <c r="T2" t="n">
-        <v>187.52558716632</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -725,7 +725,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>55.35316080232846</v>
       </c>
     </row>
     <row r="3">
@@ -735,19 +735,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>145.0692123933839</v>
+        <v>54.33074065808146</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -756,7 +756,7 @@
         <v>100.8417573507397</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>48.77881175550657</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,7 +783,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>26.91122581714234</v>
+        <v>26.91122581714238</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -792,7 +792,7 @@
         <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>187.52558716632</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -804,7 +804,7 @@
         <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>119.9564503828302</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -823,22 +823,22 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>167.0019352027142</v>
       </c>
       <c r="H4" t="n">
-        <v>153.4336708318196</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>125.7072197708667</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>23.4337583055308</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -859,19 +859,19 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>3.343082173845758</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>132.8223696106904</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>187.52558716632</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>187.52558716632</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -880,10 +880,10 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>136.0699831921491</v>
       </c>
       <c r="Y4" t="n">
-        <v>46.78039326035191</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -905,16 +905,16 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>6.876045741711437</v>
+        <v>382.6612299361389</v>
       </c>
       <c r="G5" t="n">
-        <v>76.2444138232018</v>
+        <v>174.2620066422632</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>99.43720189476413</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,10 +944,10 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>143.3876437926214</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>210.487799365049</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>251.1152373702176</v>
@@ -956,10 +956,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -972,16 +972,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
         <v>145.0692123933839</v>
@@ -990,10 +990,10 @@
         <v>135.8024773971665</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>97.35224439075473</v>
       </c>
       <c r="I6" t="n">
-        <v>34.54624609514063</v>
+        <v>36.3389040643703</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,28 +1020,28 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>4.478189731062699</v>
+        <v>4.478189731062741</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>143.0590333442029</v>
       </c>
       <c r="T6" t="n">
         <v>193.9532570062491</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>225.8399978858403</v>
       </c>
       <c r="V6" t="n">
-        <v>232.8005871494253</v>
+        <v>139.8106086904319</v>
       </c>
       <c r="W6" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X6" t="n">
         <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="7">
@@ -1057,25 +1057,25 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.6990233854882</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>150.7405094023015</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>2.017892827655771</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1102,22 +1102,22 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>188.5114056234667</v>
+        <v>158.5816712750316</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>222.4254139074074</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2485590306925</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1130,7 +1130,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -1142,13 +1142,13 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>308.7818899839796</v>
       </c>
       <c r="G8" t="n">
         <v>11.87073484362677</v>
       </c>
       <c r="H8" t="n">
-        <v>196.1652297663357</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1190,10 +1190,10 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -1209,7 +1209,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C9" t="n">
         <v>172.7084989883157</v>
@@ -1224,10 +1224,10 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>135.5072338470352</v>
+        <v>88.14919951610227</v>
       </c>
       <c r="H9" t="n">
-        <v>94.50081326185511</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
@@ -1260,13 +1260,13 @@
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>137.5750138932992</v>
       </c>
       <c r="T9" t="n">
-        <v>129.1919942930737</v>
+        <v>192.7632183107638</v>
       </c>
       <c r="U9" t="n">
-        <v>225.8205739680685</v>
+        <v>0</v>
       </c>
       <c r="V9" t="n">
         <v>232.8005871494253</v>
@@ -1288,7 +1288,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
@@ -1339,19 +1339,19 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>197.1876907596158</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>221.3678187343026</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>150.145862729913</v>
+        <v>102.3463937053028</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -1376,7 +1376,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722614</v>
       </c>
       <c r="F11" t="n">
         <v>406.8760457417114</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695412</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1427,7 +1427,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701346</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
         <v>349.240968717413</v>
@@ -1464,7 +1464,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H12" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1528,25 +1528,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>19.91555826189102</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856555</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,10 +1573,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.3752467101217</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>61.16269384155272</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
         <v>217.4054503272883</v>
@@ -1655,10 +1655,10 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695531</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
-        <v>199.0222304576155</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U14" t="n">
         <v>250.9057009881286</v>
@@ -1673,7 +1673,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560531</v>
       </c>
     </row>
     <row r="15">
@@ -1701,7 +1701,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H15" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1762,16 +1762,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
@@ -1780,10 +1780,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>54.84205284513761</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856555</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.3752467101217</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1819,10 +1819,10 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
-        <v>248.2668796492898</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
@@ -1856,7 +1856,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187855</v>
       </c>
       <c r="H17" t="n">
         <v>283.1540821444137</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695436</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -2005,19 +2005,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>18.70843787977265</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
         <v>81.26583631856553</v>
@@ -2047,7 +2047,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2065,7 +2065,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>173.6930521279886</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -2084,7 +2084,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206824</v>
       </c>
       <c r="E20" t="n">
         <v>381.9303700722618</v>
@@ -2096,7 +2096,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H20" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2333,7 +2333,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H23" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2479,7 +2479,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -2491,7 +2491,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>83.06560892428168</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2527,7 +2527,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
-        <v>217.4054503272883</v>
+        <v>11.56087338713362</v>
       </c>
       <c r="U25" t="n">
         <v>286.1844743892441</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2728,10 +2728,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>68.17501931583776</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2950,7 +2950,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>110.0177171766856</v>
+        <v>28.75188085812005</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -2968,7 +2968,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3029,7 +3029,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710071</v>
       </c>
       <c r="D32" t="n">
         <v>354.683041620683</v>
@@ -3092,7 +3092,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
-        <v>369.7311006784686</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
         <v>386.2379386560536</v>
@@ -3193,19 +3193,19 @@
         <v>124.3308255261726</v>
       </c>
       <c r="E34" t="n">
-        <v>122.1493151545295</v>
+        <v>122.1493151545303</v>
       </c>
       <c r="F34" t="n">
-        <v>121.1364005308918</v>
+        <v>121.1364005308915</v>
       </c>
       <c r="G34" t="n">
         <v>141.2394908002291</v>
       </c>
       <c r="H34" t="n">
-        <v>116.0100653541842</v>
+        <v>116.0100653541841</v>
       </c>
       <c r="I34" t="n">
-        <v>56.98118882652582</v>
+        <v>56.98118882652579</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,13 +3232,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>42.09059921808198</v>
+        <v>42.09059921808195</v>
       </c>
       <c r="S34" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T34" t="n">
-        <v>193.1208028352486</v>
+        <v>193.1208028352485</v>
       </c>
       <c r="U34" t="n">
         <v>261.8998268972044</v>
@@ -3266,7 +3266,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
-        <v>365.2728917710071</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
         <v>354.683041620683</v>
@@ -3320,7 +3320,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U35" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
@@ -3430,7 +3430,7 @@
         <v>124.3308255261726</v>
       </c>
       <c r="E37" t="n">
-        <v>122.1493151545295</v>
+        <v>122.1493151545294</v>
       </c>
       <c r="F37" t="n">
         <v>121.1364005308915</v>
@@ -3439,10 +3439,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H37" t="n">
-        <v>116.0100653541842</v>
+        <v>116.0100653541841</v>
       </c>
       <c r="I37" t="n">
-        <v>56.98118882652582</v>
+        <v>56.9811888265258</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,13 +3469,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>42.09059921808198</v>
+        <v>42.09059921808196</v>
       </c>
       <c r="S37" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T37" t="n">
-        <v>193.1208028352489</v>
+        <v>193.1208028352485</v>
       </c>
       <c r="U37" t="n">
         <v>261.8998268972044</v>
@@ -3506,7 +3506,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
-        <v>354.6830416206824</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
         <v>381.9303700722618</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695349</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3752,7 +3752,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>409.8033385187861</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H41" t="n">
         <v>283.1540821444137</v>
@@ -3913,10 +3913,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H43" t="n">
-        <v>116.0100653541842</v>
+        <v>116.0100653541841</v>
       </c>
       <c r="I43" t="n">
-        <v>56.98118882652581</v>
+        <v>56.98118882652578</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>42.09059921808196</v>
+        <v>42.09059921808193</v>
       </c>
       <c r="S43" t="n">
         <v>156.7416385096049</v>
@@ -3958,7 +3958,7 @@
         <v>227.8529958317883</v>
       </c>
       <c r="W43" t="n">
-        <v>262.2383508445513</v>
+        <v>262.2383508445512</v>
       </c>
       <c r="X43" t="n">
         <v>201.4250078969974</v>
@@ -3980,7 +3980,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206816</v>
       </c>
       <c r="E44" t="n">
         <v>381.9303700722618</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4071,7 +4071,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H45" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
@@ -4132,7 +4132,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>155.5473326898976</v>
+        <v>155.5473326898975</v>
       </c>
       <c r="C46" t="n">
         <v>142.9621736065881</v>
@@ -4150,10 +4150,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H46" t="n">
-        <v>116.0100653541842</v>
+        <v>116.0100653541841</v>
       </c>
       <c r="I46" t="n">
-        <v>56.98118882652581</v>
+        <v>56.98118882652578</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,10 +4180,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>42.09059921808196</v>
+        <v>42.09059921808193</v>
       </c>
       <c r="S46" t="n">
-        <v>156.7416385096049</v>
+        <v>156.7416385096048</v>
       </c>
       <c r="T46" t="n">
         <v>193.1208028352485</v>
@@ -4192,16 +4192,16 @@
         <v>261.8998268972044</v>
       </c>
       <c r="V46" t="n">
-        <v>227.8529958317883</v>
+        <v>227.8529958317882</v>
       </c>
       <c r="W46" t="n">
-        <v>262.2383508445513</v>
+        <v>262.2383508445512</v>
       </c>
       <c r="X46" t="n">
         <v>201.4250078969974</v>
       </c>
       <c r="Y46" t="n">
-        <v>194.3000058600551</v>
+        <v>194.300005860055</v>
       </c>
     </row>
   </sheetData>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>411.215795675625</v>
+        <v>344.3906707271972</v>
       </c>
       <c r="C2" t="n">
-        <v>411.215795675625</v>
+        <v>344.3906707271972</v>
       </c>
       <c r="D2" t="n">
-        <v>221.7960106591401</v>
+        <v>154.9708857107125</v>
       </c>
       <c r="E2" t="n">
-        <v>221.7960106591401</v>
+        <v>154.9708857107125</v>
       </c>
       <c r="F2" t="n">
-        <v>217.6519665656067</v>
+        <v>154.9708857107125</v>
       </c>
       <c r="G2" t="n">
-        <v>204.4218319897905</v>
+        <v>141.7407511348962</v>
       </c>
       <c r="H2" t="n">
-        <v>15.0020469733056</v>
+        <v>141.7407511348962</v>
       </c>
       <c r="I2" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="J2" t="n">
-        <v>21.03371160678506</v>
+        <v>21.03371160678489</v>
       </c>
       <c r="K2" t="n">
-        <v>80.81213159058967</v>
+        <v>80.81213159058939</v>
       </c>
       <c r="L2" t="n">
-        <v>191.8743094079185</v>
+        <v>191.8743094079184</v>
       </c>
       <c r="M2" t="n">
-        <v>347.1218190644757</v>
+        <v>347.1218190644754</v>
       </c>
       <c r="N2" t="n">
-        <v>509.4952041123833</v>
+        <v>509.4952041123828</v>
       </c>
       <c r="O2" t="n">
-        <v>649.4845259985589</v>
+        <v>649.4845259985582</v>
       </c>
       <c r="P2" t="n">
-        <v>734.4611726020269</v>
+        <v>734.4611726020263</v>
       </c>
       <c r="Q2" t="n">
-        <v>750.1023486652801</v>
+        <v>750.1023486652795</v>
       </c>
       <c r="R2" t="n">
-        <v>750.1023486652801</v>
+        <v>750.1023486652795</v>
       </c>
       <c r="S2" t="n">
-        <v>600.6355806921099</v>
+        <v>589.7227393823975</v>
       </c>
       <c r="T2" t="n">
-        <v>411.215795675625</v>
+        <v>400.3029543659128</v>
       </c>
       <c r="U2" t="n">
-        <v>411.215795675625</v>
+        <v>400.3029543659128</v>
       </c>
       <c r="V2" t="n">
-        <v>411.215795675625</v>
+        <v>400.3029543659128</v>
       </c>
       <c r="W2" t="n">
-        <v>411.215795675625</v>
+        <v>400.3029543659128</v>
       </c>
       <c r="X2" t="n">
-        <v>411.215795675625</v>
+        <v>400.3029543659128</v>
       </c>
       <c r="Y2" t="n">
-        <v>411.215795675625</v>
+        <v>344.3906707271972</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>412.331375568015</v>
+        <v>554.7039552642595</v>
       </c>
       <c r="C3" t="n">
-        <v>412.331375568015</v>
+        <v>380.2509259831326</v>
       </c>
       <c r="D3" t="n">
-        <v>263.3969659067637</v>
+        <v>380.2509259831326</v>
       </c>
       <c r="E3" t="n">
-        <v>263.3969659067637</v>
+        <v>221.0134709776771</v>
       </c>
       <c r="F3" t="n">
-        <v>116.8624079336487</v>
+        <v>166.133934959413</v>
       </c>
       <c r="G3" t="n">
-        <v>116.8624079336487</v>
+        <v>166.133934959413</v>
       </c>
       <c r="H3" t="n">
-        <v>15.0020469733056</v>
+        <v>64.27357399906981</v>
       </c>
       <c r="I3" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="J3" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="K3" t="n">
-        <v>67.13418877024222</v>
+        <v>67.13418877024208</v>
       </c>
       <c r="L3" t="n">
-        <v>183.5548280772651</v>
+        <v>183.5548280772649</v>
       </c>
       <c r="M3" t="n">
-        <v>338.7690911140244</v>
+        <v>338.7690911140243</v>
       </c>
       <c r="N3" t="n">
-        <v>512.5000587546604</v>
+        <v>512.5000587546599</v>
       </c>
       <c r="O3" t="n">
-        <v>649.2101578476351</v>
+        <v>649.2101578476346</v>
       </c>
       <c r="P3" t="n">
-        <v>739.5989987017066</v>
+        <v>739.598998701706</v>
       </c>
       <c r="Q3" t="n">
-        <v>750.1023486652801</v>
+        <v>750.1023486652795</v>
       </c>
       <c r="R3" t="n">
-        <v>722.9192922843283</v>
+        <v>722.9192922843275</v>
       </c>
       <c r="S3" t="n">
-        <v>722.9192922843283</v>
+        <v>722.9192922843275</v>
       </c>
       <c r="T3" t="n">
-        <v>722.9192922843283</v>
+        <v>722.9192922843275</v>
       </c>
       <c r="U3" t="n">
-        <v>533.4995072678435</v>
+        <v>722.9192922843275</v>
       </c>
       <c r="V3" t="n">
-        <v>533.4995072678435</v>
+        <v>722.9192922843275</v>
       </c>
       <c r="W3" t="n">
-        <v>533.4995072678435</v>
+        <v>722.9192922843275</v>
       </c>
       <c r="X3" t="n">
-        <v>533.4995072678435</v>
+        <v>722.9192922843275</v>
       </c>
       <c r="Y3" t="n">
-        <v>412.331375568015</v>
+        <v>722.9192922843275</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>320.6330054664542</v>
+        <v>478.4939114906941</v>
       </c>
       <c r="C4" t="n">
-        <v>320.6330054664542</v>
+        <v>478.4939114906941</v>
       </c>
       <c r="D4" t="n">
-        <v>320.6330054664542</v>
+        <v>478.4939114906941</v>
       </c>
       <c r="E4" t="n">
-        <v>320.6330054664542</v>
+        <v>330.580817908301</v>
       </c>
       <c r="F4" t="n">
-        <v>320.6330054664542</v>
+        <v>183.6908704103906</v>
       </c>
       <c r="G4" t="n">
-        <v>320.6330054664542</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="H4" t="n">
-        <v>165.6494995757273</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="I4" t="n">
-        <v>38.67250990818521</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="J4" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="K4" t="n">
-        <v>106.7151088594234</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="L4" t="n">
-        <v>279.6026869745585</v>
+        <v>187.8896250884407</v>
       </c>
       <c r="M4" t="n">
-        <v>295.552956263964</v>
+        <v>373.5399563830973</v>
       </c>
       <c r="N4" t="n">
-        <v>471.6341805242522</v>
+        <v>471.6341805242515</v>
       </c>
       <c r="O4" t="n">
-        <v>634.3723839608024</v>
+        <v>634.3723839608017</v>
       </c>
       <c r="P4" t="n">
-        <v>750.1023486652801</v>
+        <v>750.1023486652795</v>
       </c>
       <c r="Q4" t="n">
-        <v>746.7254979846279</v>
+        <v>750.1023486652795</v>
       </c>
       <c r="R4" t="n">
-        <v>746.7254979846279</v>
+        <v>615.9383389575114</v>
       </c>
       <c r="S4" t="n">
-        <v>746.7254979846279</v>
+        <v>615.9383389575114</v>
       </c>
       <c r="T4" t="n">
-        <v>557.305712968143</v>
+        <v>615.9383389575114</v>
       </c>
       <c r="U4" t="n">
-        <v>367.8859279516581</v>
+        <v>615.9383389575114</v>
       </c>
       <c r="V4" t="n">
-        <v>367.8859279516581</v>
+        <v>615.9383389575114</v>
       </c>
       <c r="W4" t="n">
-        <v>367.8859279516581</v>
+        <v>615.9383389575114</v>
       </c>
       <c r="X4" t="n">
-        <v>367.8859279516581</v>
+        <v>478.4939114906941</v>
       </c>
       <c r="Y4" t="n">
-        <v>320.6330054664542</v>
+        <v>478.4939114906941</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>215.0145766369895</v>
+        <v>593.161622211459</v>
       </c>
       <c r="C5" t="n">
-        <v>215.0145766369895</v>
+        <v>593.161622211459</v>
       </c>
       <c r="D5" t="n">
-        <v>215.0145766369895</v>
+        <v>593.161622211459</v>
       </c>
       <c r="E5" t="n">
-        <v>215.0145766369895</v>
+        <v>593.161622211459</v>
       </c>
       <c r="F5" t="n">
-        <v>208.069075887786</v>
+        <v>206.6351273264701</v>
       </c>
       <c r="G5" t="n">
-        <v>131.0545164704105</v>
+        <v>30.61289839489111</v>
       </c>
       <c r="H5" t="n">
-        <v>131.0545164704105</v>
+        <v>30.61289839489111</v>
       </c>
       <c r="I5" t="n">
-        <v>30.61289839489115</v>
+        <v>30.61289839489111</v>
       </c>
       <c r="J5" t="n">
-        <v>93.38580827121484</v>
+        <v>93.3858082712145</v>
       </c>
       <c r="K5" t="n">
-        <v>238.2046462235842</v>
+        <v>238.2046462235836</v>
       </c>
       <c r="L5" t="n">
-        <v>454.7669823190636</v>
+        <v>454.7669823190628</v>
       </c>
       <c r="M5" t="n">
-        <v>727.4037457643078</v>
+        <v>727.403745764307</v>
       </c>
       <c r="N5" t="n">
-        <v>1009.06586545389</v>
+        <v>1009.065865453889</v>
       </c>
       <c r="O5" t="n">
-        <v>1261.696156831932</v>
+        <v>1261.69615683193</v>
       </c>
       <c r="P5" t="n">
-        <v>1442.809264855775</v>
+        <v>1442.809264855774</v>
       </c>
       <c r="Q5" t="n">
-        <v>1530.644919744557</v>
+        <v>1530.644919744556</v>
       </c>
       <c r="R5" t="n">
-        <v>1530.644919744557</v>
+        <v>1530.644919744556</v>
       </c>
       <c r="S5" t="n">
-        <v>1385.808915913627</v>
+        <v>1530.644919744556</v>
       </c>
       <c r="T5" t="n">
-        <v>1173.194977161052</v>
+        <v>1530.644919744556</v>
       </c>
       <c r="U5" t="n">
-        <v>919.54322224164</v>
+        <v>1276.993164825144</v>
       </c>
       <c r="V5" t="n">
-        <v>588.4803348980694</v>
+        <v>945.9302774815732</v>
       </c>
       <c r="W5" t="n">
-        <v>588.4803348980694</v>
+        <v>593.161622211459</v>
       </c>
       <c r="X5" t="n">
-        <v>215.0145766369895</v>
+        <v>593.161622211459</v>
       </c>
       <c r="Y5" t="n">
-        <v>215.0145766369895</v>
+        <v>593.161622211459</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>672.6043129793816</v>
+        <v>608.6006950626452</v>
       </c>
       <c r="C6" t="n">
-        <v>498.1512836982546</v>
+        <v>608.6006950626452</v>
       </c>
       <c r="D6" t="n">
-        <v>349.2168740370033</v>
+        <v>608.6006950626452</v>
       </c>
       <c r="E6" t="n">
-        <v>349.2168740370033</v>
+        <v>449.3632400571896</v>
       </c>
       <c r="F6" t="n">
-        <v>202.6823160638883</v>
+        <v>302.8286820840746</v>
       </c>
       <c r="G6" t="n">
-        <v>65.50809647079078</v>
+        <v>165.654462490977</v>
       </c>
       <c r="H6" t="n">
-        <v>65.50809647079078</v>
+        <v>67.31886209627527</v>
       </c>
       <c r="I6" t="n">
-        <v>30.61289839489115</v>
+        <v>30.61289839489111</v>
       </c>
       <c r="J6" t="n">
-        <v>49.18216652275288</v>
+        <v>49.18216652275277</v>
       </c>
       <c r="K6" t="n">
-        <v>159.0748281477046</v>
+        <v>179.2994673532844</v>
       </c>
       <c r="L6" t="n">
-        <v>353.1616144543714</v>
+        <v>373.386253659951</v>
       </c>
       <c r="M6" t="n">
-        <v>599.0086077642231</v>
+        <v>619.2332469698025</v>
       </c>
       <c r="N6" t="n">
-        <v>865.7710843621741</v>
+        <v>885.9957235677533</v>
       </c>
       <c r="O6" t="n">
-        <v>1087.586838970545</v>
+        <v>1107.811478176124</v>
       </c>
       <c r="P6" t="n">
-        <v>1266.505110628429</v>
+        <v>1266.505110628428</v>
       </c>
       <c r="Q6" t="n">
-        <v>1530.644919744557</v>
+        <v>1530.644919744556</v>
       </c>
       <c r="R6" t="n">
-        <v>1526.121495773787</v>
+        <v>1526.121495773785</v>
       </c>
       <c r="S6" t="n">
-        <v>1526.121495773787</v>
+        <v>1381.617421688732</v>
       </c>
       <c r="T6" t="n">
-        <v>1330.209114959394</v>
+        <v>1185.705040874339</v>
       </c>
       <c r="U6" t="n">
-        <v>1330.209114959394</v>
+        <v>957.5838308886414</v>
       </c>
       <c r="V6" t="n">
-        <v>1095.057006727651</v>
+        <v>816.360993827599</v>
       </c>
       <c r="W6" t="n">
-        <v>840.8196499994497</v>
+        <v>816.360993827599</v>
       </c>
       <c r="X6" t="n">
-        <v>840.8196499994497</v>
+        <v>816.360993827599</v>
       </c>
       <c r="Y6" t="n">
-        <v>840.8196499994497</v>
+        <v>608.6006950626452</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>498.1488386077407</v>
+        <v>330.6809069731106</v>
       </c>
       <c r="C7" t="n">
-        <v>498.1488386077407</v>
+        <v>330.6809069731106</v>
       </c>
       <c r="D7" t="n">
-        <v>498.1488386077407</v>
+        <v>180.5642675607749</v>
       </c>
       <c r="E7" t="n">
-        <v>498.1488386077407</v>
+        <v>32.65117397838179</v>
       </c>
       <c r="F7" t="n">
-        <v>351.2588911098303</v>
+        <v>32.65117397838179</v>
       </c>
       <c r="G7" t="n">
-        <v>182.8760392052967</v>
+        <v>32.65117397838179</v>
       </c>
       <c r="H7" t="n">
-        <v>30.61289839489115</v>
+        <v>32.65117397838179</v>
       </c>
       <c r="I7" t="n">
-        <v>30.61289839489115</v>
+        <v>32.65117397838179</v>
       </c>
       <c r="J7" t="n">
-        <v>30.61289839489115</v>
+        <v>30.61289839489111</v>
       </c>
       <c r="K7" t="n">
-        <v>157.1668774983384</v>
+        <v>157.1668774983383</v>
       </c>
       <c r="L7" t="n">
-        <v>374.6388343436931</v>
+        <v>374.6388343436928</v>
       </c>
       <c r="M7" t="n">
-        <v>614.3216441132942</v>
+        <v>614.3216441132938</v>
       </c>
       <c r="N7" t="n">
-        <v>853.7399488058483</v>
+        <v>853.7399488058478</v>
       </c>
       <c r="O7" t="n">
-        <v>1058.865208650461</v>
+        <v>1058.86520865046</v>
       </c>
       <c r="P7" t="n">
-        <v>1210.864622702306</v>
+        <v>1210.864622702305</v>
       </c>
       <c r="Q7" t="n">
-        <v>1232.666058086413</v>
+        <v>1232.666058086412</v>
       </c>
       <c r="R7" t="n">
-        <v>1232.666058086413</v>
+        <v>1232.666058086412</v>
       </c>
       <c r="S7" t="n">
-        <v>1042.250496850588</v>
+        <v>1072.482551747996</v>
       </c>
       <c r="T7" t="n">
-        <v>1042.250496850588</v>
+        <v>847.8104164879891</v>
       </c>
       <c r="U7" t="n">
-        <v>1042.250496850588</v>
+        <v>558.670457871128</v>
       </c>
       <c r="V7" t="n">
-        <v>787.5660086447012</v>
+        <v>558.670457871128</v>
       </c>
       <c r="W7" t="n">
-        <v>498.1488386077407</v>
+        <v>558.670457871128</v>
       </c>
       <c r="X7" t="n">
-        <v>498.1488386077407</v>
+        <v>330.6809069731106</v>
       </c>
       <c r="Y7" t="n">
-        <v>498.1488386077407</v>
+        <v>330.6809069731106</v>
       </c>
     </row>
     <row r="8">
@@ -4778,22 +4778,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1391.720654864724</v>
+        <v>1094.488952315161</v>
       </c>
       <c r="C8" t="n">
-        <v>1022.758137924312</v>
+        <v>725.5264353747491</v>
       </c>
       <c r="D8" t="n">
-        <v>664.4924393175618</v>
+        <v>367.2607367679986</v>
       </c>
       <c r="E8" t="n">
-        <v>664.4924393175618</v>
+        <v>367.2607367679986</v>
       </c>
       <c r="F8" t="n">
-        <v>253.5065345279542</v>
+        <v>55.35983779428181</v>
       </c>
       <c r="G8" t="n">
-        <v>241.5158932717655</v>
+        <v>43.36919653809315</v>
       </c>
       <c r="H8" t="n">
         <v>43.36919653809315</v>
@@ -4802,22 +4802,22 @@
         <v>43.36919653809315</v>
       </c>
       <c r="J8" t="n">
-        <v>152.5078184301901</v>
+        <v>152.5078184301905</v>
       </c>
       <c r="K8" t="n">
-        <v>366.8168396232722</v>
+        <v>366.8168396232727</v>
       </c>
       <c r="L8" t="n">
-        <v>669.5878927711875</v>
+        <v>669.5878927711881</v>
       </c>
       <c r="M8" t="n">
-        <v>1038.148464578731</v>
+        <v>1038.148464578732</v>
       </c>
       <c r="N8" t="n">
         <v>1417.286540135169</v>
       </c>
       <c r="O8" t="n">
-        <v>1761.9606125456</v>
+        <v>1761.960612545599</v>
       </c>
       <c r="P8" t="n">
         <v>2021.630958172451</v>
@@ -4838,16 +4838,16 @@
         <v>2168.459826904657</v>
       </c>
       <c r="V8" t="n">
-        <v>2168.459826904657</v>
+        <v>1837.396939561087</v>
       </c>
       <c r="W8" t="n">
-        <v>2168.459826904657</v>
+        <v>1484.628284290972</v>
       </c>
       <c r="X8" t="n">
-        <v>2168.459826904657</v>
+        <v>1484.628284290972</v>
       </c>
       <c r="Y8" t="n">
-        <v>1778.320494928846</v>
+        <v>1094.488952315161</v>
       </c>
     </row>
     <row r="9">
@@ -4857,22 +4857,22 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>904.8600091750928</v>
+        <v>761.5682439298523</v>
       </c>
       <c r="C9" t="n">
-        <v>730.4069798939659</v>
+        <v>587.1152146487253</v>
       </c>
       <c r="D9" t="n">
-        <v>581.4725702327146</v>
+        <v>438.1808049874741</v>
       </c>
       <c r="E9" t="n">
-        <v>422.235115227259</v>
+        <v>278.9433499820186</v>
       </c>
       <c r="F9" t="n">
-        <v>275.700557254144</v>
+        <v>132.4087920089035</v>
       </c>
       <c r="G9" t="n">
-        <v>138.8245634692599</v>
+        <v>43.36919653809315</v>
       </c>
       <c r="H9" t="n">
         <v>43.36919653809315</v>
@@ -4881,25 +4881,25 @@
         <v>43.36919653809315</v>
       </c>
       <c r="J9" t="n">
-        <v>214.3836900926282</v>
+        <v>89.89854665403004</v>
       </c>
       <c r="K9" t="n">
-        <v>371.4749568374573</v>
+        <v>246.9898133988591</v>
       </c>
       <c r="L9" t="n">
-        <v>906.4287469816077</v>
+        <v>504.5409489588471</v>
       </c>
       <c r="M9" t="n">
-        <v>1226.335642450118</v>
+        <v>824.4478444273568</v>
       </c>
       <c r="N9" t="n">
-        <v>1569.118166444749</v>
+        <v>1361.14165158626</v>
       </c>
       <c r="O9" t="n">
-        <v>1860.477412699316</v>
+        <v>1652.500897840826</v>
       </c>
       <c r="P9" t="n">
-        <v>2074.985828260217</v>
+        <v>1867.009313401727</v>
       </c>
       <c r="Q9" t="n">
         <v>2168.459826904657</v>
@@ -4908,25 +4908,25 @@
         <v>2168.459826904657</v>
       </c>
       <c r="S9" t="n">
-        <v>2168.459826904657</v>
+        <v>2029.495166406375</v>
       </c>
       <c r="T9" t="n">
-        <v>2037.96286297226</v>
+        <v>1834.784844880351</v>
       </c>
       <c r="U9" t="n">
-        <v>1809.861273105524</v>
+        <v>1834.784844880351</v>
       </c>
       <c r="V9" t="n">
-        <v>1574.709164873781</v>
+        <v>1599.632736648609</v>
       </c>
       <c r="W9" t="n">
-        <v>1320.47180814558</v>
+        <v>1345.395379920407</v>
       </c>
       <c r="X9" t="n">
-        <v>1112.620307940047</v>
+        <v>1137.543879714874</v>
       </c>
       <c r="Y9" t="n">
-        <v>904.8600091750928</v>
+        <v>929.7835809499204</v>
       </c>
     </row>
     <row r="10">
@@ -4987,25 +4987,25 @@
         <v>1486.355378693649</v>
       </c>
       <c r="S10" t="n">
-        <v>1287.175893077875</v>
+        <v>1486.355378693649</v>
       </c>
       <c r="T10" t="n">
-        <v>1063.572035770499</v>
+        <v>1486.355378693649</v>
       </c>
       <c r="U10" t="n">
-        <v>911.9095481645261</v>
+        <v>1382.975183031727</v>
       </c>
       <c r="V10" t="n">
-        <v>657.2250599586392</v>
+        <v>1128.29069482584</v>
       </c>
       <c r="W10" t="n">
-        <v>657.2250599586392</v>
+        <v>838.873524788879</v>
       </c>
       <c r="X10" t="n">
-        <v>657.2250599586392</v>
+        <v>838.873524788879</v>
       </c>
       <c r="Y10" t="n">
-        <v>657.2250599586392</v>
+        <v>838.873524788879</v>
       </c>
     </row>
     <row r="11">
@@ -5021,7 +5021,7 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E11" t="n">
         <v>1204.759558406469</v>
@@ -5033,31 +5033,31 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q11" t="n">
         <v>4562.265728852255</v>
@@ -5075,13 +5075,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5112,28 +5112,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J12" t="n">
-        <v>119.2902967703794</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K12" t="n">
-        <v>119.2902967703794</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L12" t="n">
-        <v>119.2902967703794</v>
+        <v>746.8882603249853</v>
       </c>
       <c r="M12" t="n">
-        <v>716.6687843969311</v>
+        <v>1344.266747951537</v>
       </c>
       <c r="N12" t="n">
-        <v>1344.266747951538</v>
+        <v>1344.266747951537</v>
       </c>
       <c r="O12" t="n">
-        <v>1896.176478190825</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="P12" t="n">
         <v>2319.799627685893</v>
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>634.927936255316</v>
+        <v>580.8993044876693</v>
       </c>
       <c r="C13" t="n">
-        <v>634.927936255316</v>
+        <v>411.9631215597624</v>
       </c>
       <c r="D13" t="n">
-        <v>484.8112968429803</v>
+        <v>261.8464821474266</v>
       </c>
       <c r="E13" t="n">
-        <v>484.8112968429803</v>
+        <v>113.9333885650335</v>
       </c>
       <c r="F13" t="n">
-        <v>484.8112968429803</v>
+        <v>113.9333885650335</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P13" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S13" t="n">
-        <v>2318.136881002812</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T13" t="n">
-        <v>2098.535416025753</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U13" t="n">
-        <v>1809.460189369951</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V13" t="n">
-        <v>1554.775701164064</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W13" t="n">
-        <v>1265.358531127103</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X13" t="n">
-        <v>1037.368980229086</v>
+        <v>983.3403484614391</v>
       </c>
       <c r="Y13" t="n">
-        <v>816.5764010855557</v>
+        <v>762.547769317909</v>
       </c>
     </row>
     <row r="14">
@@ -5270,31 +5270,31 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
         <v>4562.265728852255</v>
@@ -5303,7 +5303,7 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T14" t="n">
         <v>4405.252601474784</v>
@@ -5312,13 +5312,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5349,28 +5349,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797186</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K15" t="n">
-        <v>93.81666304797186</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L15" t="n">
-        <v>589.1422692637304</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M15" t="n">
-        <v>1186.520756890282</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N15" t="n">
-        <v>1814.118720444888</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O15" t="n">
-        <v>2366.028450684175</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P15" t="n">
         <v>2553.061288060775</v>
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>806.8386896933887</v>
+        <v>695.5020655703109</v>
       </c>
       <c r="C16" t="n">
-        <v>637.9025067654818</v>
+        <v>695.5020655703109</v>
       </c>
       <c r="D16" t="n">
-        <v>637.9025067654818</v>
+        <v>545.3854261579752</v>
       </c>
       <c r="E16" t="n">
-        <v>489.9894131830887</v>
+        <v>545.3854261579752</v>
       </c>
       <c r="F16" t="n">
-        <v>343.0994656851783</v>
+        <v>398.4954786600648</v>
       </c>
       <c r="G16" t="n">
-        <v>175.9033664000583</v>
+        <v>231.2993793749447</v>
       </c>
       <c r="H16" t="n">
         <v>175.9033664000583</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797763</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M16" t="n">
-        <v>1248.150240910811</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570819</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279804</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P16" t="n">
-        <v>2327.764848853363</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.963083580262</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832665</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487569</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.46108051051</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U16" t="n">
-        <v>1977.46108051051</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V16" t="n">
-        <v>1726.686454602137</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W16" t="n">
-        <v>1437.269284565176</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X16" t="n">
-        <v>1209.279733667159</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y16" t="n">
-        <v>988.4871545236284</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="17">
@@ -5489,76 +5489,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168597</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362685</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797182</v>
       </c>
       <c r="I17" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111719</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014777</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355935</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068008</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694705</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852253</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398592</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492576</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474782</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y17" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="18">
@@ -5580,37 +5580,37 @@
         <v>460.7742193300128</v>
       </c>
       <c r="F18" t="n">
-        <v>314.2396613568978</v>
+        <v>314.2396613568977</v>
       </c>
       <c r="G18" t="n">
-        <v>178.4809954028057</v>
+        <v>178.4809954028056</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="K18" t="n">
-        <v>93.81666304797186</v>
+        <v>280.8495004245706</v>
       </c>
       <c r="L18" t="n">
-        <v>119.290296770379</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M18" t="n">
-        <v>716.6687843969308</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N18" t="n">
-        <v>1344.266747951538</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O18" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P18" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q18" t="n">
         <v>2553.061288060775</v>
@@ -5647,37 +5647,37 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>513.8536007400712</v>
+        <v>633.4413279836774</v>
       </c>
       <c r="C19" t="n">
-        <v>344.9174178121643</v>
+        <v>464.5051450557705</v>
       </c>
       <c r="D19" t="n">
-        <v>194.8007783998286</v>
+        <v>464.5051450557705</v>
       </c>
       <c r="E19" t="n">
-        <v>194.8007783998286</v>
+        <v>464.5051450557705</v>
       </c>
       <c r="F19" t="n">
-        <v>194.8007783998286</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="G19" t="n">
-        <v>175.9033664000582</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H19" t="n">
         <v>175.9033664000582</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="J19" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
@@ -5695,28 +5695,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854706</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V19" t="n">
-        <v>1433.701365648819</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W19" t="n">
-        <v>1144.284195611858</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X19" t="n">
-        <v>916.2946447138411</v>
+        <v>1035.882371957447</v>
       </c>
       <c r="Y19" t="n">
-        <v>695.5020655703109</v>
+        <v>815.0897928139171</v>
       </c>
     </row>
     <row r="20">
@@ -5732,22 +5732,22 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
         <v>378.1925803111717</v>
@@ -5826,31 +5826,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J21" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K21" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L21" t="n">
-        <v>93.81666304797187</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>680.0291294438176</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N21" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O21" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P21" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q21" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5969,37 +5969,37 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O23" t="n">
         <v>3640.42229106801</v>
@@ -6121,22 +6121,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>513.8536007400712</v>
+        <v>721.7774158311365</v>
       </c>
       <c r="C25" t="n">
-        <v>344.9174178121643</v>
+        <v>552.8412329032296</v>
       </c>
       <c r="D25" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E25" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F25" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G25" t="n">
-        <v>177.7213185270443</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H25" t="n">
         <v>93.81666304797187</v>
@@ -6175,22 +6175,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510508</v>
+        <v>2185.384895601574</v>
       </c>
       <c r="U25" t="n">
-        <v>1688.385853854706</v>
+        <v>1896.309668945771</v>
       </c>
       <c r="V25" t="n">
-        <v>1433.701365648819</v>
+        <v>1641.625180739884</v>
       </c>
       <c r="W25" t="n">
-        <v>1144.284195611858</v>
+        <v>1352.208010702924</v>
       </c>
       <c r="X25" t="n">
-        <v>916.2946447138411</v>
+        <v>1124.218459804906</v>
       </c>
       <c r="Y25" t="n">
-        <v>695.5020655703109</v>
+        <v>903.4258806613763</v>
       </c>
     </row>
     <row r="26">
@@ -6224,10 +6224,10 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
@@ -6260,13 +6260,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6303,22 +6303,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J27" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K27" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L27" t="n">
-        <v>589.1422692637306</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M27" t="n">
-        <v>1186.520756890282</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N27" t="n">
-        <v>1814.118720444889</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O27" t="n">
-        <v>2366.028450684176</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
         <v>2553.061288060775</v>
@@ -6358,25 +6358,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>580.8993044876688</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C28" t="n">
-        <v>411.9631215597619</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D28" t="n">
-        <v>411.9631215597619</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E28" t="n">
-        <v>411.9631215597619</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F28" t="n">
-        <v>411.9631215597619</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G28" t="n">
-        <v>244.7670222746419</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H28" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I28" t="n">
         <v>93.81666304797187</v>
@@ -6406,28 +6406,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X28" t="n">
-        <v>983.3403484614387</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y28" t="n">
-        <v>762.5477693179085</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="29">
@@ -6440,7 +6440,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D29" t="n">
         <v>1590.547811004713</v>
@@ -6449,7 +6449,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G29" t="n">
         <v>379.8308874362686</v>
@@ -6458,10 +6458,10 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K29" t="n">
         <v>852.8523611075811</v>
@@ -6479,7 +6479,7 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q29" t="n">
         <v>4562.265728852255</v>
@@ -6488,22 +6488,22 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y29" t="n">
         <v>2704.375866615997</v>
@@ -6537,25 +6537,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
-        <v>589.1422692637306</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>1186.520756890282</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>1814.118720444889</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O30" t="n">
-        <v>2366.028450684176</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
         <v>2553.061288060775</v>
@@ -6598,22 +6598,22 @@
         <v>513.8536007400712</v>
       </c>
       <c r="C31" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D31" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E31" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F31" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G31" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797187</v>
@@ -6695,13 +6695,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
@@ -6740,7 +6740,7 @@
         <v>3467.980956852888</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y32" t="n">
         <v>2704.375866615997</v>
@@ -6774,22 +6774,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J33" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>2297.690135143765</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O33" t="n">
         <v>2553.061288060775</v>
@@ -6832,19 +6832,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>926.9575315319328</v>
+        <v>926.957531531933</v>
       </c>
       <c r="C34" t="n">
-        <v>782.5512955656822</v>
+        <v>782.5512955656824</v>
       </c>
       <c r="D34" t="n">
-        <v>656.9646031150027</v>
+        <v>656.964603115003</v>
       </c>
       <c r="E34" t="n">
-        <v>533.5814564942658</v>
+        <v>533.5814564942654</v>
       </c>
       <c r="F34" t="n">
-        <v>411.2214559580114</v>
+        <v>411.2214559580113</v>
       </c>
       <c r="G34" t="n">
         <v>268.5553036345476</v>
@@ -6859,10 +6859,10 @@
         <v>198.094482495415</v>
       </c>
       <c r="K34" t="n">
-        <v>483.8255460380728</v>
+        <v>483.825546038073</v>
       </c>
       <c r="L34" t="n">
-        <v>898.2659412311323</v>
+        <v>898.2659412311325</v>
       </c>
       <c r="M34" t="n">
         <v>1344.317444979286</v>
@@ -6932,22 +6932,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O35" t="n">
         <v>3640.42229106801</v>
@@ -6971,13 +6971,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -7011,22 +7011,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L36" t="n">
-        <v>923.0670414349511</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>1520.445529061503</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
-        <v>2148.04349261611</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O36" t="n">
         <v>2553.061288060775</v>
@@ -7069,40 +7069,40 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>926.9575315319324</v>
+        <v>926.9575315319325</v>
       </c>
       <c r="C37" t="n">
-        <v>782.5512955656818</v>
+        <v>782.5512955656819</v>
       </c>
       <c r="D37" t="n">
-        <v>656.9646031150023</v>
+        <v>656.9646031150025</v>
       </c>
       <c r="E37" t="n">
-        <v>533.5814564942655</v>
+        <v>533.5814564942657</v>
       </c>
       <c r="F37" t="n">
-        <v>411.2214559580114</v>
+        <v>411.2214559580112</v>
       </c>
       <c r="G37" t="n">
-        <v>268.5553036345476</v>
+        <v>268.5553036345475</v>
       </c>
       <c r="H37" t="n">
         <v>151.373419438402</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J37" t="n">
         <v>198.094482495415</v>
       </c>
       <c r="K37" t="n">
-        <v>483.8255460380728</v>
+        <v>483.8255460380729</v>
       </c>
       <c r="L37" t="n">
         <v>898.2659412311323</v>
       </c>
       <c r="M37" t="n">
-        <v>1344.317444979286</v>
+        <v>1344.317444979287</v>
       </c>
       <c r="N37" t="n">
         <v>1785.769117656414</v>
@@ -7120,13 +7120,13 @@
         <v>2596.781734931274</v>
       </c>
       <c r="S37" t="n">
-        <v>2438.456847547835</v>
+        <v>2438.456847547834</v>
       </c>
       <c r="T37" t="n">
         <v>2243.385329532432</v>
       </c>
       <c r="U37" t="n">
-        <v>1978.840049838285</v>
+        <v>1978.840049838286</v>
       </c>
       <c r="V37" t="n">
         <v>1748.685508594055</v>
@@ -7163,19 +7163,19 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362685</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192591</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
@@ -7184,19 +7184,19 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355935</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068008</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694705</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852253</v>
       </c>
       <c r="R38" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398592</v>
       </c>
       <c r="S38" t="n">
         <v>4606.285157492578</v>
@@ -7208,13 +7208,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7239,31 +7239,31 @@
         <v>460.7742193300128</v>
       </c>
       <c r="F39" t="n">
-        <v>314.2396613568978</v>
+        <v>314.2396613568977</v>
       </c>
       <c r="G39" t="n">
-        <v>178.4809954028057</v>
+        <v>178.4809954028056</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273899</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
-        <v>923.0670414349511</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>1520.445529061503</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>2148.04349261611</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O39" t="n">
         <v>2553.061288060775</v>
@@ -7306,37 +7306,37 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>926.9575315319323</v>
+        <v>926.9575315319325</v>
       </c>
       <c r="C40" t="n">
-        <v>782.5512955656817</v>
+        <v>782.5512955656819</v>
       </c>
       <c r="D40" t="n">
-        <v>656.9646031150022</v>
+        <v>656.9646031150024</v>
       </c>
       <c r="E40" t="n">
-        <v>533.5814564942654</v>
+        <v>533.5814564942656</v>
       </c>
       <c r="F40" t="n">
-        <v>411.2214559580113</v>
+        <v>411.2214559580115</v>
       </c>
       <c r="G40" t="n">
-        <v>268.5553036345475</v>
+        <v>268.5553036345477</v>
       </c>
       <c r="H40" t="n">
-        <v>151.3734194384019</v>
+        <v>151.373419438402</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="J40" t="n">
-        <v>198.0944824954149</v>
+        <v>198.094482495415</v>
       </c>
       <c r="K40" t="n">
-        <v>483.8255460380728</v>
+        <v>483.8255460380727</v>
       </c>
       <c r="L40" t="n">
-        <v>898.2659412311323</v>
+        <v>898.2659412311322</v>
       </c>
       <c r="M40" t="n">
         <v>1344.317444979286</v>
@@ -7391,13 +7391,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G41" t="n">
         <v>379.8308874362686</v>
@@ -7406,7 +7406,7 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192595</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J41" t="n">
         <v>378.192580311172</v>
@@ -7485,31 +7485,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
-        <v>93.81666304797187</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>680.0291294438176</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O42" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7543,25 +7543,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>926.9575315319327</v>
+        <v>926.9575315319321</v>
       </c>
       <c r="C43" t="n">
-        <v>782.551295565682</v>
+        <v>782.5512955656815</v>
       </c>
       <c r="D43" t="n">
-        <v>656.9646031150027</v>
+        <v>656.9646031150021</v>
       </c>
       <c r="E43" t="n">
-        <v>533.5814564942658</v>
+        <v>533.5814564942654</v>
       </c>
       <c r="F43" t="n">
-        <v>411.2214559580117</v>
+        <v>411.2214559580113</v>
       </c>
       <c r="G43" t="n">
-        <v>268.555303634548</v>
+        <v>268.5553036345473</v>
       </c>
       <c r="H43" t="n">
-        <v>151.373419438402</v>
+        <v>151.3734194384017</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
@@ -7570,7 +7570,7 @@
         <v>198.094482495415</v>
       </c>
       <c r="K43" t="n">
-        <v>483.8255460380729</v>
+        <v>483.8255460380728</v>
       </c>
       <c r="L43" t="n">
         <v>898.2659412311323</v>
@@ -7591,25 +7591,25 @@
         <v>2639.297491717215</v>
       </c>
       <c r="R43" t="n">
-        <v>2596.781734931274</v>
+        <v>2596.781734931273</v>
       </c>
       <c r="S43" t="n">
-        <v>2438.456847547835</v>
+        <v>2438.456847547834</v>
       </c>
       <c r="T43" t="n">
         <v>2243.385329532432</v>
       </c>
       <c r="U43" t="n">
-        <v>1978.840049838286</v>
+        <v>1978.840049838285</v>
       </c>
       <c r="V43" t="n">
         <v>1748.685508594055</v>
       </c>
       <c r="W43" t="n">
-        <v>1483.798285518751</v>
+        <v>1483.79828551875</v>
       </c>
       <c r="X43" t="n">
-        <v>1280.33868158239</v>
+        <v>1280.338681582389</v>
       </c>
       <c r="Y43" t="n">
         <v>1084.076049400516</v>
@@ -7622,10 +7622,10 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D44" t="n">
         <v>1590.547811004713</v>
@@ -7640,7 +7640,7 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I44" t="n">
         <v>95.34095638192593</v>
@@ -7649,7 +7649,7 @@
         <v>378.1925803111712</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332386</v>
@@ -7661,7 +7661,7 @@
         <v>2950.898526355936</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7673,25 +7673,25 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S44" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T44" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y44" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="45">
@@ -7719,25 +7719,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H45" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.584050252739</v>
       </c>
       <c r="J45" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>923.0670414349511</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>1520.445529061503</v>
+        <v>1671.859558793924</v>
       </c>
       <c r="N45" t="n">
-        <v>2148.04349261611</v>
+        <v>2299.457522348531</v>
       </c>
       <c r="O45" t="n">
         <v>2553.061288060775</v>
@@ -7786,31 +7786,31 @@
         <v>782.5512955656818</v>
       </c>
       <c r="D46" t="n">
-        <v>656.9646031150023</v>
+        <v>656.9646031150024</v>
       </c>
       <c r="E46" t="n">
-        <v>533.5814564942655</v>
+        <v>533.5814564942657</v>
       </c>
       <c r="F46" t="n">
-        <v>411.2214559580113</v>
+        <v>411.2214559580117</v>
       </c>
       <c r="G46" t="n">
-        <v>268.5553036345476</v>
+        <v>268.555303634548</v>
       </c>
       <c r="H46" t="n">
         <v>151.373419438402</v>
       </c>
       <c r="I46" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J46" t="n">
-        <v>198.094482495415</v>
+        <v>198.0944824954149</v>
       </c>
       <c r="K46" t="n">
-        <v>483.8255460380729</v>
+        <v>483.8255460380728</v>
       </c>
       <c r="L46" t="n">
-        <v>898.2659412311323</v>
+        <v>898.265941231132</v>
       </c>
       <c r="M46" t="n">
         <v>1344.317444979286</v>
@@ -7828,16 +7828,16 @@
         <v>2639.297491717215</v>
       </c>
       <c r="R46" t="n">
-        <v>2596.781734931274</v>
+        <v>2596.781734931273</v>
       </c>
       <c r="S46" t="n">
-        <v>2438.456847547835</v>
+        <v>2438.456847547834</v>
       </c>
       <c r="T46" t="n">
         <v>2243.385329532432</v>
       </c>
       <c r="U46" t="n">
-        <v>1978.840049838286</v>
+        <v>1978.840049838285</v>
       </c>
       <c r="V46" t="n">
         <v>1748.685508594055</v>
@@ -8055,7 +8055,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>15.37922103265835</v>
+        <v>15.37922103265839</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -8137,16 +8137,16 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K4" t="n">
-        <v>106.7437663446525</v>
+        <v>14.10430989402852</v>
       </c>
       <c r="L4" t="n">
         <v>162.4747015415544</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>171.4142040457083</v>
       </c>
       <c r="N4" t="n">
-        <v>154.1946371899313</v>
+        <v>75.41988959484648</v>
       </c>
       <c r="O4" t="n">
         <v>163.0416663658825</v>
@@ -8237,7 +8237,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>34.66253762724327</v>
+        <v>34.66253762724335</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8295,7 +8295,7 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>20.42892849048488</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -8310,7 +8310,7 @@
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>20.42892849048511</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
         <v>210.0772877358491</v>
@@ -8529,19 +8529,19 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>126.0910353404088</v>
+        <v>0.348466210511738</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>280.204701600164</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>0</v>
+        <v>195.8699829942128</v>
       </c>
       <c r="O9" t="n">
         <v>0</v>
@@ -8550,7 +8550,7 @@
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
         <v>31.66886087721419</v>
@@ -22547,22 +22547,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>167.1574544543629</v>
+        <v>167.1574544543631</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>402.7734420891134</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>129.3682389399022</v>
+        <v>316.8938261062223</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -22598,7 +22598,7 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>25.91829388988674</v>
+        <v>25.91829388988691</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -22607,13 +22607,13 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>210.0705217435178</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>330.8847778537252</v>
       </c>
     </row>
     <row r="3">
@@ -23315,7 +23315,7 @@
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>3.410605131648481e-13</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
@@ -23416,25 +23416,25 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>145.6085800303778</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,10 +23461,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671011734</v>
       </c>
       <c r="S13" t="n">
-        <v>119.8635921600919</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23650,16 +23650,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819332</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -23668,7 +23668,7 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>85.45266000108629</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -23707,10 +23707,10 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>3.87076367453821</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -23893,19 +23893,19 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>146.8157004124962</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -23935,7 +23935,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -23953,7 +23953,7 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>52.01660326104852</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -24367,7 +24367,7 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
@@ -24379,7 +24379,7 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>57.22910392194221</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>81.26583631856553</v>
@@ -24415,7 +24415,7 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>205.8445769401546</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24616,10 +24616,10 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>72.11969353038613</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,7 +24646,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24838,7 +24838,7 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>57.22910392194228</v>
+        <v>138.4949402405078</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
@@ -24856,7 +24856,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -25081,7 +25081,7 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>-8.242295734817162e-13</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>1244317.331757531</v>
+        <v>1244317.33175753</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>1244317.33175753</v>
+        <v>1244317.331757531</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>1244317.331757531</v>
+        <v>1244317.33175753</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>1244317.33175753</v>
+        <v>1244317.331757531</v>
       </c>
     </row>
     <row r="12">
@@ -26311,7 +26311,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>152326.9268048896</v>
+        <v>152326.9268048895</v>
       </c>
       <c r="C2" t="n">
         <v>184734.3982194638</v>
@@ -26320,7 +26320,7 @@
         <v>184734.3982194638</v>
       </c>
       <c r="E2" t="n">
-        <v>181607.9849302514</v>
+        <v>181607.9849302513</v>
       </c>
       <c r="F2" t="n">
         <v>181607.9849302513</v>
@@ -26335,13 +26335,13 @@
         <v>181607.9849302513</v>
       </c>
       <c r="J2" t="n">
+        <v>181607.9849302514</v>
+      </c>
+      <c r="K2" t="n">
         <v>181607.9849302513</v>
       </c>
-      <c r="K2" t="n">
-        <v>181607.9849302514</v>
-      </c>
       <c r="L2" t="n">
-        <v>184734.3982194635</v>
+        <v>184734.3982194636</v>
       </c>
       <c r="M2" t="n">
         <v>184734.3982194636</v>
@@ -26350,10 +26350,10 @@
         <v>184734.3982194637</v>
       </c>
       <c r="O2" t="n">
-        <v>184734.3982194637</v>
+        <v>184734.3982194636</v>
       </c>
       <c r="P2" t="n">
-        <v>184734.3982194637</v>
+        <v>184734.3982194636</v>
       </c>
     </row>
     <row r="3">
@@ -26363,25 +26363,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>591356.9025208456</v>
+        <v>591356.9025208454</v>
       </c>
       <c r="C3" t="n">
-        <v>216004.0468996509</v>
+        <v>216004.0468996507</v>
       </c>
       <c r="D3" t="n">
-        <v>167084.5112960623</v>
+        <v>167084.5112960626</v>
       </c>
       <c r="E3" t="n">
-        <v>601443.2075742638</v>
+        <v>601443.2075742644</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1.767800767993322e-10</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>1.22694927995326e-10</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -26390,10 +26390,10 @@
         <v>49064.94472854459</v>
       </c>
       <c r="K3" t="n">
-        <v>50221.67010838287</v>
+        <v>50221.67010838279</v>
       </c>
       <c r="L3" t="n">
-        <v>59784.02116064604</v>
+        <v>59784.02116064611</v>
       </c>
       <c r="M3" t="n">
         <v>157146.3805515977</v>
@@ -26418,25 +26418,25 @@
         <v>195959.7647260688</v>
       </c>
       <c r="C4" t="n">
-        <v>220711.7529307693</v>
+        <v>220711.7529307694</v>
       </c>
       <c r="D4" t="n">
         <v>173824.4120003225</v>
       </c>
       <c r="E4" t="n">
-        <v>14216.75207685511</v>
+        <v>14216.75207685513</v>
       </c>
       <c r="F4" t="n">
+        <v>14216.75207685513</v>
+      </c>
+      <c r="G4" t="n">
         <v>14216.7520768551</v>
-      </c>
-      <c r="G4" t="n">
-        <v>14216.75207685509</v>
       </c>
       <c r="H4" t="n">
         <v>14216.75207685507</v>
       </c>
       <c r="I4" t="n">
-        <v>14216.75207685507</v>
+        <v>14216.75207685505</v>
       </c>
       <c r="J4" t="n">
         <v>14216.75207685505</v>
@@ -26445,19 +26445,19 @@
         <v>14216.75207685505</v>
       </c>
       <c r="L4" t="n">
-        <v>22207.61133994853</v>
+        <v>22207.61133994854</v>
       </c>
       <c r="M4" t="n">
         <v>22207.61133994853</v>
       </c>
       <c r="N4" t="n">
-        <v>22207.61133994854</v>
+        <v>22207.6113399486</v>
       </c>
       <c r="O4" t="n">
-        <v>22207.61133994854</v>
+        <v>22207.61133994853</v>
       </c>
       <c r="P4" t="n">
-        <v>22207.61133994852</v>
+        <v>22207.61133994859</v>
       </c>
     </row>
     <row r="5">
@@ -26467,10 +26467,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>56985.80041161359</v>
+        <v>56985.80041161357</v>
       </c>
       <c r="C5" t="n">
-        <v>72511.97598790111</v>
+        <v>72511.97598790107</v>
       </c>
       <c r="D5" t="n">
         <v>85199.08185587233</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-691975.5408536384</v>
+        <v>-692335.6238693557</v>
       </c>
       <c r="C6" t="n">
         <v>-324493.3775988574</v>
       </c>
       <c r="D6" t="n">
-        <v>-241373.6069327933</v>
+        <v>-241373.6069327937</v>
       </c>
       <c r="E6" t="n">
-        <v>-535174.5045447747</v>
+        <v>-535209.2424702109</v>
       </c>
       <c r="F6" t="n">
-        <v>66268.70302948912</v>
+        <v>66233.96510405358</v>
       </c>
       <c r="G6" t="n">
-        <v>66268.70302948894</v>
+        <v>66233.96510405355</v>
       </c>
       <c r="H6" t="n">
-        <v>66268.7030294891</v>
+        <v>66233.96510405335</v>
       </c>
       <c r="I6" t="n">
-        <v>66268.70302948913</v>
+        <v>66233.96510405347</v>
       </c>
       <c r="J6" t="n">
-        <v>17203.75830094457</v>
+        <v>17169.02037550893</v>
       </c>
       <c r="K6" t="n">
-        <v>16047.03292110634</v>
+        <v>16012.2949956707</v>
       </c>
       <c r="L6" t="n">
-        <v>-421.3501350464358</v>
+        <v>-421.3501350464357</v>
       </c>
       <c r="M6" t="n">
-        <v>-97783.70952599797</v>
+        <v>-97783.70952599803</v>
       </c>
       <c r="N6" t="n">
-        <v>59362.67102559973</v>
+        <v>59362.67102559982</v>
       </c>
       <c r="O6" t="n">
-        <v>59362.67102559973</v>
+        <v>59362.6710255997</v>
       </c>
       <c r="P6" t="n">
-        <v>59362.67102559976</v>
+        <v>59362.6710255998</v>
       </c>
     </row>
   </sheetData>
@@ -26692,19 +26692,19 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>3.36886840263309e-14</v>
+        <v>4.82703532317577e-14</v>
       </c>
       <c r="F2" t="n">
-        <v>3.36886840263309e-14</v>
+        <v>4.82703532317577e-14</v>
       </c>
       <c r="G2" t="n">
-        <v>3.36886840263309e-14</v>
+        <v>4.82703532317577e-14</v>
       </c>
       <c r="H2" t="n">
-        <v>3.36886840263309e-14</v>
+        <v>4.82703532317577e-14</v>
       </c>
       <c r="I2" t="n">
-        <v>3.36886840263309e-14</v>
+        <v>4.82703532317577e-14</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -26713,19 +26713,19 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="M2" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="N2" t="n">
         <v>24.28464749203971</v>
       </c>
       <c r="O2" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="P2" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203976</v>
       </c>
     </row>
     <row r="3">
@@ -26735,13 +26735,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>548.4699409129048</v>
+        <v>548.4699409129046</v>
       </c>
       <c r="C3" t="n">
-        <v>716.4483122836622</v>
+        <v>716.4483122836618</v>
       </c>
       <c r="D3" t="n">
-        <v>853.7106645376851</v>
+        <v>853.710664537685</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26787,10 +26787,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>187.52558716632</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="C4" t="n">
-        <v>382.6612299361393</v>
+        <v>382.6612299361389</v>
       </c>
       <c r="D4" t="n">
         <v>542.1149567261643</v>
@@ -26914,7 +26914,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>3.36886840263309e-14</v>
+        <v>4.82703532317577e-14</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -26935,7 +26935,7 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26957,22 +26957,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>548.4699409129048</v>
+        <v>548.4699409129046</v>
       </c>
       <c r="C3" t="n">
-        <v>167.9783713707574</v>
+        <v>167.9783713707573</v>
       </c>
       <c r="D3" t="n">
-        <v>137.262352254023</v>
+        <v>137.2623522540232</v>
       </c>
       <c r="E3" t="n">
-        <v>514.2648358039884</v>
+        <v>514.2648358039889</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>-2.273736754432321e-13</v>
       </c>
       <c r="G3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26999,7 +26999,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>-2.273736754432321e-13</v>
       </c>
     </row>
     <row r="4">
@@ -27009,25 +27009,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>187.52558716632</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="C4" t="n">
-        <v>195.1356427698193</v>
+        <v>195.135642769819</v>
       </c>
       <c r="D4" t="n">
-        <v>159.453726790025</v>
+        <v>159.4537267900254</v>
       </c>
       <c r="E4" t="n">
-        <v>630.5933313734838</v>
+        <v>630.593331373484</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>-4.547473508864641e-13</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -27036,16 +27036,16 @@
         <v>187.5255871663198</v>
       </c>
       <c r="K4" t="n">
-        <v>195.1356427698194</v>
+        <v>195.135642769819</v>
       </c>
       <c r="L4" t="n">
-        <v>159.4537267900252</v>
+        <v>159.4537267900254</v>
       </c>
       <c r="M4" t="n">
-        <v>630.5933313734838</v>
+        <v>630.593331373484</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>-4.547473508864641e-13</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27151,7 +27151,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>3.36886840263309e-14</v>
+        <v>4.82703532317577e-14</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27255,16 +27255,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>187.52558716632</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="K4" t="n">
-        <v>195.1356427698193</v>
+        <v>195.135642769819</v>
       </c>
       <c r="L4" t="n">
-        <v>159.453726790025</v>
+        <v>159.4537267900254</v>
       </c>
       <c r="M4" t="n">
-        <v>630.5933313734838</v>
+        <v>630.593331373484</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27273,7 +27273,7 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
     </row>
   </sheetData>
@@ -27379,16 +27379,16 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
         <v>400</v>
@@ -27397,7 +27397,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>125.4713171199747</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27424,10 +27424,10 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>11.36529914368128</v>
+        <v>11.36529914368134</v>
       </c>
       <c r="S2" t="n">
-        <v>10.80371289661457</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -27439,13 +27439,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>139.1704469738952</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27455,19 +27455,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>90.73847173530243</v>
       </c>
       <c r="G3" t="n">
         <v>136.1637893657753</v>
@@ -27476,7 +27476,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>48.77881175550655</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27509,10 +27509,10 @@
         <v>149.7702446909496</v>
       </c>
       <c r="T3" t="n">
-        <v>195.4095977920012</v>
+        <v>195.4095977920013</v>
       </c>
       <c r="U3" t="n">
-        <v>38.33818124377089</v>
+        <v>225.8637684100909</v>
       </c>
       <c r="V3" t="n">
         <v>232.8005871494253</v>
@@ -27524,7 +27524,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>85.7262453944742</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="4">
@@ -27543,22 +27543,22 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>167.0019352027142</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>153.4336708318196</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>125.7072197708667</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>23.43375830553084</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27579,19 +27579,19 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>3.343082173845801</v>
       </c>
       <c r="R4" t="n">
-        <v>132.8223696106904</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>206.7802557954962</v>
       </c>
       <c r="T4" t="n">
-        <v>36.19408632378006</v>
+        <v>223.7196734901001</v>
       </c>
       <c r="U4" t="n">
-        <v>98.73949432713025</v>
+        <v>286.2650814934503</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -27600,10 +27600,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>89.63967219688806</v>
       </c>
       <c r="Y4" t="n">
-        <v>171.8042600917429</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27625,16 +27625,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>24.21481580557253</v>
       </c>
       <c r="G5" t="n">
-        <v>336.1781294716974</v>
+        <v>238.160536652636</v>
       </c>
       <c r="H5" t="n">
         <v>309.978013057777</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>99.43720189476419</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27664,10 +27664,10 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>143.3876437926214</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>210.487799365049</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -27676,10 +27676,10 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -27692,16 +27692,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
@@ -27710,10 +27710,10 @@
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>97.35224439075472</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>1.792657969229644</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27743,25 +27743,25 @@
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>143.0590333442028</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
         <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>225.8399978858403</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>92.98997845899333</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -27777,25 +27777,25 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.6990233854882</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>150.7405094023015</v>
       </c>
       <c r="I7" t="n">
         <v>116.5978353037443</v>
       </c>
       <c r="J7" t="n">
-        <v>2.017892827655729</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27822,22 +27822,22 @@
         <v>119.2023528106942</v>
       </c>
       <c r="S7" t="n">
-        <v>12.98992332091902</v>
+        <v>42.91965766935408</v>
       </c>
       <c r="T7" t="n">
-        <v>222.4254139074074</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2485590306925</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -27850,7 +27850,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -27862,13 +27862,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>98.09415575773187</v>
       </c>
       <c r="G8" t="n">
         <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>108.1615749898473</v>
+        <v>304.326804756183</v>
       </c>
       <c r="I8" t="n">
         <v>78.16360657708285</v>
@@ -27910,10 +27910,10 @@
         <v>251.0710926941158</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
@@ -27929,7 +27929,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
@@ -27944,13 +27944,13 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>47.35803433093295</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>94.50081326185511</v>
       </c>
       <c r="I9" t="n">
-        <v>26.17372043046386</v>
+        <v>26.17372043046387</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -27980,13 +27980,13 @@
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>137.5750138932992</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>63.5712240176901</v>
+        <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>0</v>
+        <v>225.8205739680685</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -28008,7 +28008,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -28059,19 +28059,19 @@
         <v>108.0728512656385</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>197.1876907596158</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>221.3678187343026</v>
       </c>
       <c r="U10" t="n">
-        <v>136.0891950858037</v>
+        <v>183.8886641104139</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -28096,7 +28096,7 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>3.979039320256561e-13</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
@@ -28138,7 +28138,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>1.186383405309181e-12</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -28293,7 +28293,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>4.318262549584207e-12</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -28378,7 +28378,7 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>5.684341886080801e-13</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
@@ -28393,7 +28393,7 @@
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
     </row>
     <row r="15">
@@ -28482,7 +28482,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>4.129731877029193e-12</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -28512,7 +28512,7 @@
         <v>0</v>
       </c>
       <c r="L16" t="n">
-        <v>2.049531568725317e-12</v>
+        <v>0</v>
       </c>
       <c r="M16" t="n">
         <v>0</v>
@@ -28576,7 +28576,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>1.10924786597401e-12</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -28612,7 +28612,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>9.426059932593489e-13</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
@@ -28804,7 +28804,7 @@
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
@@ -28816,7 +28816,7 @@
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -29053,7 +29053,7 @@
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -29749,7 +29749,7 @@
         <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="D32" t="n">
         <v>0</v>
@@ -29812,7 +29812,7 @@
         <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
         <v>0</v>
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="C34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="D34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="E34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="F34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="G34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="H34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="I34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="J34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="K34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="L34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="M34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="N34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="O34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="P34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Q34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="R34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="S34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="T34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="U34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="V34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="W34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="X34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Y34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
     </row>
     <row r="35">
@@ -29986,7 +29986,7 @@
         <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
         <v>0</v>
@@ -30040,7 +30040,7 @@
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>2.557953848736361e-13</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="C37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="D37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="E37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="F37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="G37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="H37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="I37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="J37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="K37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="L37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="M37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="N37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="O37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="P37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Q37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="R37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="S37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="T37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="U37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="V37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="W37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="X37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Y37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
     </row>
     <row r="38">
@@ -30226,7 +30226,7 @@
         <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
         <v>0</v>
@@ -30271,7 +30271,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>1.804778548830654e-12</v>
       </c>
       <c r="T38" t="n">
         <v>0</v>
@@ -30472,7 +30472,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="C43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="D43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="E43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="F43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="G43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="H43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="I43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="J43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="K43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="L43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="M43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="N43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="O43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="P43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="Q43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="R43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="S43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="T43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="U43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="V43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="W43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="X43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="Y43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203975</v>
       </c>
     </row>
     <row r="44">
@@ -30700,7 +30700,7 @@
         <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>1.364242052659392e-12</v>
       </c>
       <c r="E44" t="n">
         <v>0</v>
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="C46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="D46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="E46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="F46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="G46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="H46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="I46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="J46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="K46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="L46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="M46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="N46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="O46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="P46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="Q46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="R46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="S46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="T46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="U46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="V46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="W46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="X46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="Y46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203976</v>
       </c>
     </row>
   </sheetData>
@@ -31042,46 +31042,46 @@
         <v>2.204904285077002</v>
       </c>
       <c r="H2" t="n">
-        <v>22.58097600954486</v>
+        <v>22.58097600954485</v>
       </c>
       <c r="I2" t="n">
-        <v>85.00457245043123</v>
+        <v>85.00457245043118</v>
       </c>
       <c r="J2" t="n">
-        <v>187.1384950655544</v>
+        <v>187.1384950655543</v>
       </c>
       <c r="K2" t="n">
-        <v>280.472093452864</v>
+        <v>280.4720934528639</v>
       </c>
       <c r="L2" t="n">
-        <v>347.9504329672894</v>
+        <v>347.9504329672893</v>
       </c>
       <c r="M2" t="n">
-        <v>387.1618995470275</v>
+        <v>387.1618995470274</v>
       </c>
       <c r="N2" t="n">
-        <v>393.4265838470026</v>
+        <v>393.4265838470024</v>
       </c>
       <c r="O2" t="n">
-        <v>371.5015668622681</v>
+        <v>371.501566862268</v>
       </c>
       <c r="P2" t="n">
-        <v>317.0679923244296</v>
+        <v>317.0679923244294</v>
       </c>
       <c r="Q2" t="n">
-        <v>238.1048576151093</v>
+        <v>238.1048576151092</v>
       </c>
       <c r="R2" t="n">
-        <v>138.5038187974684</v>
+        <v>138.5038187974683</v>
       </c>
       <c r="S2" t="n">
-        <v>50.24425639619225</v>
+        <v>50.24425639619223</v>
       </c>
       <c r="T2" t="n">
-        <v>9.651968507924584</v>
+        <v>9.651968507924579</v>
       </c>
       <c r="U2" t="n">
-        <v>0.1763923428061602</v>
+        <v>0.1763923428061601</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31118,13 +31118,13 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1.179727797435305</v>
+        <v>1.179727797435304</v>
       </c>
       <c r="H3" t="n">
         <v>11.39368688575676</v>
       </c>
       <c r="I3" t="n">
-        <v>40.61782109590852</v>
+        <v>40.6178210959085</v>
       </c>
       <c r="J3" t="n">
         <v>111.4584056340083</v>
@@ -31133,34 +31133,34 @@
         <v>190.5001680621737</v>
       </c>
       <c r="L3" t="n">
-        <v>256.1509851405033</v>
+        <v>256.1509851405032</v>
       </c>
       <c r="M3" t="n">
-        <v>298.9161177975331</v>
+        <v>298.9161177975329</v>
       </c>
       <c r="N3" t="n">
-        <v>306.8275379829655</v>
+        <v>306.8275379829654</v>
       </c>
       <c r="O3" t="n">
-        <v>280.6872536292674</v>
+        <v>280.6872536292673</v>
       </c>
       <c r="P3" t="n">
-        <v>225.2762668628873</v>
+        <v>225.2762668628872</v>
       </c>
       <c r="Q3" t="n">
         <v>150.5912184936715</v>
       </c>
       <c r="R3" t="n">
-        <v>73.2466083355008</v>
+        <v>73.24660833550075</v>
       </c>
       <c r="S3" t="n">
-        <v>21.91292641288821</v>
+        <v>21.9129264128882</v>
       </c>
       <c r="T3" t="n">
-        <v>4.755130902820371</v>
+        <v>4.755130902820369</v>
       </c>
       <c r="U3" t="n">
-        <v>0.07761367088390166</v>
+        <v>0.07761367088390163</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,16 +31197,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.9890441557445823</v>
+        <v>0.9890441557445819</v>
       </c>
       <c r="H4" t="n">
-        <v>8.793501675620019</v>
+        <v>8.793501675620016</v>
       </c>
       <c r="I4" t="n">
-        <v>29.74325515639163</v>
+        <v>29.74325515639162</v>
       </c>
       <c r="J4" t="n">
-        <v>69.92542181114197</v>
+        <v>69.92542181114193</v>
       </c>
       <c r="K4" t="n">
         <v>114.9089482765069</v>
@@ -31221,25 +31221,25 @@
         <v>151.3507297604415</v>
       </c>
       <c r="O4" t="n">
-        <v>139.7968957592434</v>
+        <v>139.7968957592433</v>
       </c>
       <c r="P4" t="n">
         <v>119.6203949820538</v>
       </c>
       <c r="Q4" t="n">
-        <v>82.81896107784863</v>
+        <v>82.81896107784858</v>
       </c>
       <c r="R4" t="n">
-        <v>44.47102176647912</v>
+        <v>44.4710217664791</v>
       </c>
       <c r="S4" t="n">
         <v>17.23634224147603</v>
       </c>
       <c r="T4" t="n">
-        <v>4.225915938181396</v>
+        <v>4.225915938181394</v>
       </c>
       <c r="U4" t="n">
-        <v>0.05394786304061364</v>
+        <v>0.05394786304061362</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31276,49 +31276,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>2.880194220235825</v>
+        <v>2.880194220235824</v>
       </c>
       <c r="H5" t="n">
-        <v>29.49678905799016</v>
+        <v>29.49678905799014</v>
       </c>
       <c r="I5" t="n">
-        <v>111.0386876756418</v>
+        <v>111.0386876756417</v>
       </c>
       <c r="J5" t="n">
-        <v>244.4528841997406</v>
+        <v>244.4528841997405</v>
       </c>
       <c r="K5" t="n">
-        <v>366.3715055423232</v>
+        <v>366.371505542323</v>
       </c>
       <c r="L5" t="n">
-        <v>454.5162494098655</v>
+        <v>454.5162494098652</v>
       </c>
       <c r="M5" t="n">
-        <v>505.7369033739843</v>
+        <v>505.736903373984</v>
       </c>
       <c r="N5" t="n">
-        <v>513.9202552022293</v>
+        <v>513.9202552022291</v>
       </c>
       <c r="O5" t="n">
-        <v>485.2803239247593</v>
+        <v>485.2803239247591</v>
       </c>
       <c r="P5" t="n">
-        <v>414.1755291126873</v>
+        <v>414.1755291126871</v>
       </c>
       <c r="Q5" t="n">
-        <v>311.0285736004917</v>
+        <v>311.0285736004916</v>
       </c>
       <c r="R5" t="n">
-        <v>180.9230001868889</v>
+        <v>180.9230001868888</v>
       </c>
       <c r="S5" t="n">
-        <v>65.63242579362394</v>
+        <v>65.63242579362391</v>
       </c>
       <c r="T5" t="n">
         <v>12.60805019908233</v>
       </c>
       <c r="U5" t="n">
-        <v>0.230415537618866</v>
+        <v>0.2304155376188659</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,46 +31355,46 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>1.541039766044104</v>
+        <v>1.541039766044103</v>
       </c>
       <c r="H6" t="n">
-        <v>14.88319984574174</v>
+        <v>14.88319984574173</v>
       </c>
       <c r="I6" t="n">
-        <v>53.0577287870448</v>
+        <v>53.05772878704477</v>
       </c>
       <c r="J6" t="n">
-        <v>145.5944631594563</v>
+        <v>145.5944631594562</v>
       </c>
       <c r="K6" t="n">
-        <v>248.8441274844112</v>
+        <v>248.8441274844111</v>
       </c>
       <c r="L6" t="n">
-        <v>334.6016386754972</v>
+        <v>334.601638675497</v>
       </c>
       <c r="M6" t="n">
-        <v>390.4643301945958</v>
+        <v>390.4643301945957</v>
       </c>
       <c r="N6" t="n">
-        <v>400.7987591519706</v>
+        <v>400.7987591519704</v>
       </c>
       <c r="O6" t="n">
-        <v>366.6525622306776</v>
+        <v>366.6525622306774</v>
       </c>
       <c r="P6" t="n">
-        <v>294.2710058510008</v>
+        <v>294.2710058510007</v>
       </c>
       <c r="Q6" t="n">
-        <v>196.7123743462614</v>
+        <v>196.7123743462613</v>
       </c>
       <c r="R6" t="n">
-        <v>95.67964442158043</v>
+        <v>95.67964442158039</v>
       </c>
       <c r="S6" t="n">
-        <v>28.62413775963498</v>
+        <v>28.62413775963496</v>
       </c>
       <c r="T6" t="n">
-        <v>6.211471688572503</v>
+        <v>6.2114716885725</v>
       </c>
       <c r="U6" t="n">
         <v>0.1013841951344805</v>
@@ -31437,46 +31437,46 @@
         <v>1.291955972970538</v>
       </c>
       <c r="H7" t="n">
-        <v>11.48666310513807</v>
+        <v>11.48666310513806</v>
       </c>
       <c r="I7" t="n">
-        <v>38.85263962351402</v>
+        <v>38.85263962351399</v>
       </c>
       <c r="J7" t="n">
-        <v>91.34128728901705</v>
+        <v>91.341287289017</v>
       </c>
       <c r="K7" t="n">
         <v>150.101793950577</v>
       </c>
       <c r="L7" t="n">
-        <v>192.0786180178199</v>
+        <v>192.0786180178198</v>
       </c>
       <c r="M7" t="n">
-        <v>202.5199712902817</v>
+        <v>202.5199712902816</v>
       </c>
       <c r="N7" t="n">
-        <v>197.7044990273917</v>
+        <v>197.7044990273916</v>
       </c>
       <c r="O7" t="n">
-        <v>182.6121042522358</v>
+        <v>182.6121042522357</v>
       </c>
       <c r="P7" t="n">
-        <v>156.2562024036367</v>
+        <v>156.2562024036366</v>
       </c>
       <c r="Q7" t="n">
-        <v>108.183695154833</v>
+        <v>108.1836951548329</v>
       </c>
       <c r="R7" t="n">
-        <v>58.09103856647528</v>
+        <v>58.09103856647525</v>
       </c>
       <c r="S7" t="n">
-        <v>22.51526909258655</v>
+        <v>22.51526909258654</v>
       </c>
       <c r="T7" t="n">
-        <v>5.520175520874116</v>
+        <v>5.520175520874114</v>
       </c>
       <c r="U7" t="n">
-        <v>0.07047032579839307</v>
+        <v>0.07047032579839305</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31525,16 +31525,16 @@
         <v>291.2869367409261</v>
       </c>
       <c r="K8" t="n">
-        <v>436.5636098258717</v>
+        <v>436.5636098258716</v>
       </c>
       <c r="L8" t="n">
-        <v>541.5957615840433</v>
+        <v>541.5957615840432</v>
       </c>
       <c r="M8" t="n">
-        <v>602.6296390934787</v>
+        <v>602.6296390934785</v>
       </c>
       <c r="N8" t="n">
-        <v>612.3808166839016</v>
+        <v>612.3808166839015</v>
       </c>
       <c r="O8" t="n">
         <v>578.253840119091</v>
@@ -31543,10 +31543,10 @@
         <v>493.5262741662303</v>
       </c>
       <c r="Q8" t="n">
-        <v>370.61767849284</v>
+        <v>370.6176784928399</v>
       </c>
       <c r="R8" t="n">
-        <v>215.5855378141322</v>
+        <v>215.5855378141321</v>
       </c>
       <c r="S8" t="n">
         <v>78.20676087699499</v>
@@ -31555,7 +31555,7 @@
         <v>15.0235916945275</v>
       </c>
       <c r="U8" t="n">
-        <v>0.2745602137206623</v>
+        <v>0.2745602137206622</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31598,7 +31598,7 @@
         <v>17.73463097464135</v>
       </c>
       <c r="I9" t="n">
-        <v>63.22291242095122</v>
+        <v>63.22291242095121</v>
       </c>
       <c r="J9" t="n">
         <v>173.4885040076064</v>
@@ -31607,13 +31607,13 @@
         <v>296.5194861913581</v>
       </c>
       <c r="L9" t="n">
-        <v>398.7070419616803</v>
+        <v>398.7070419616802</v>
       </c>
       <c r="M9" t="n">
-        <v>465.2723121730384</v>
+        <v>465.2723121730382</v>
       </c>
       <c r="N9" t="n">
-        <v>477.5866858152849</v>
+        <v>477.5866858152848</v>
       </c>
       <c r="O9" t="n">
         <v>436.898513388451</v>
@@ -31622,19 +31622,19 @@
         <v>350.6495746475636</v>
       </c>
       <c r="Q9" t="n">
-        <v>234.3999545349509</v>
+        <v>234.3999545349508</v>
       </c>
       <c r="R9" t="n">
         <v>114.0106430867498</v>
       </c>
       <c r="S9" t="n">
-        <v>34.10815721053863</v>
+        <v>34.10815721053862</v>
       </c>
       <c r="T9" t="n">
-        <v>7.401510384057852</v>
+        <v>7.401510384057851</v>
       </c>
       <c r="U9" t="n">
-        <v>0.1208081129062763</v>
+        <v>0.1208081129062762</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31677,7 +31677,7 @@
         <v>13.68736114619437</v>
       </c>
       <c r="I10" t="n">
-        <v>46.29630948017481</v>
+        <v>46.2963094801748</v>
       </c>
       <c r="J10" t="n">
         <v>108.841112100157</v>
@@ -31692,7 +31692,7 @@
         <v>241.3202129282508</v>
       </c>
       <c r="N10" t="n">
-        <v>235.5821576420142</v>
+        <v>235.5821576420141</v>
       </c>
       <c r="O10" t="n">
         <v>217.5982526595399</v>
@@ -31701,7 +31701,7 @@
         <v>186.1928964099895</v>
       </c>
       <c r="Q10" t="n">
-        <v>128.9103103451905</v>
+        <v>128.9103103451904</v>
       </c>
       <c r="R10" t="n">
         <v>69.22054011153097</v>
@@ -31710,10 +31710,10 @@
         <v>26.82890727735642</v>
       </c>
       <c r="T10" t="n">
-        <v>6.577770693978883</v>
+        <v>6.577770693978882</v>
       </c>
       <c r="U10" t="n">
-        <v>0.08397154077419863</v>
+        <v>0.08397154077419862</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31750,49 +31750,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H11" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162559</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S11" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T11" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,49 +31829,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H12" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I12" t="n">
         <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>152.5685698206137</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L12" t="n">
-        <v>138.5543797798742</v>
+        <v>309.7666854143572</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862119</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071783</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437242</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214697</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R12" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T12" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31911,46 +31911,46 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P13" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,37 +31987,37 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H14" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I14" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J14" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162559</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R14" t="n">
         <v>345.4516222043725</v>
@@ -32026,10 +32026,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32072,28 +32072,28 @@
         <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473071</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862119</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071783</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437242</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P15" t="n">
-        <v>322.8964653704916</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
         <v>139.9817740860215</v>
@@ -32102,10 +32102,10 @@
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T15" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
         <v>0.1935814387275954</v>
@@ -32151,28 +32151,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J16" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N16" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P16" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
         <v>206.5643005515927</v>
@@ -32181,7 +32181,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
@@ -32315,10 +32315,10 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>326.7634969305194</v>
       </c>
       <c r="L18" t="n">
-        <v>164.2853229338208</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
         <v>745.5466476862121</v>
@@ -32330,10 +32330,10 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
         <v>145.679503963964</v>
@@ -32546,34 +32546,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
         <v>54.65449286742438</v>
@@ -33023,10 +33023,10 @@
         <v>99.52238</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
         <v>638.8832749473072</v>
@@ -33038,10 +33038,10 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P27" t="n">
-        <v>322.8964653704906</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
         <v>139.9817740860215</v>
@@ -33257,13 +33257,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
         <v>638.8832749473072</v>
@@ -33275,10 +33275,10 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P30" t="n">
-        <v>322.8964653704906</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
         <v>139.9817740860215</v>
@@ -33494,7 +33494,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
         <v>277.9958514420755</v>
@@ -33512,7 +33512,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>400.5469039565762</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P33" t="n">
         <v>133.9744074143302</v>
@@ -33731,10 +33731,10 @@
         <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
         <v>475.1391886422585</v>
@@ -33749,7 +33749,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>551.7051287319853</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P36" t="n">
         <v>133.9744074143302</v>
@@ -33904,7 +33904,7 @@
         <v>965.6463440175675</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159409</v>
       </c>
       <c r="O38" t="n">
         <v>926.5868626460027</v>
@@ -33968,10 +33968,10 @@
         <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
         <v>475.1391886422585</v>
@@ -33986,7 +33986,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>551.7051287319853</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P39" t="n">
         <v>133.9744074143302</v>
@@ -34126,10 +34126,10 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J41" t="n">
-        <v>466.7546155663288</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
         <v>699.5441750817575</v>
@@ -34205,34 +34205,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
         <v>54.65449286742438</v>
@@ -34357,37 +34357,37 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H44" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J44" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L44" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R44" t="n">
         <v>345.4516222043725</v>
@@ -34396,10 +34396,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T44" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U44" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34442,25 +34442,25 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K45" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862119</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071783</v>
       </c>
       <c r="O45" t="n">
-        <v>551.7051287319853</v>
+        <v>398.7616643558023</v>
       </c>
       <c r="P45" t="n">
         <v>133.9744074143302</v>
@@ -34472,10 +34472,10 @@
         <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T45" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U45" t="n">
         <v>0.1935814387275954</v>
@@ -34521,28 +34521,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J46" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N46" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O46" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P46" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q46" t="n">
         <v>206.5643005515927</v>
@@ -34551,7 +34551,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
@@ -34696,28 +34696,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>6.092590538868137</v>
+        <v>6.092590538868052</v>
       </c>
       <c r="K2" t="n">
-        <v>60.38224240788344</v>
+        <v>60.38224240788333</v>
       </c>
       <c r="L2" t="n">
-        <v>112.1840179973021</v>
+        <v>112.184017997302</v>
       </c>
       <c r="M2" t="n">
-        <v>156.8156663197548</v>
+        <v>156.8156663197546</v>
       </c>
       <c r="N2" t="n">
-        <v>164.0135202504117</v>
+        <v>164.0135202504115</v>
       </c>
       <c r="O2" t="n">
-        <v>141.4033554405814</v>
+        <v>141.4033554405812</v>
       </c>
       <c r="P2" t="n">
-        <v>85.83499656916001</v>
+        <v>85.8349965691599</v>
       </c>
       <c r="Q2" t="n">
-        <v>15.79916774065984</v>
+        <v>15.79916774065975</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34778,25 +34778,25 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>52.65872908781475</v>
+        <v>52.65872908781469</v>
       </c>
       <c r="L3" t="n">
-        <v>117.5966053606292</v>
+        <v>117.596605360629</v>
       </c>
       <c r="M3" t="n">
-        <v>156.7820838755148</v>
+        <v>156.7820838755146</v>
       </c>
       <c r="N3" t="n">
-        <v>175.4858258996322</v>
+        <v>175.4858258996321</v>
       </c>
       <c r="O3" t="n">
-        <v>138.091009184823</v>
+        <v>138.0910091848229</v>
       </c>
       <c r="P3" t="n">
-        <v>91.30185944855702</v>
+        <v>91.30185944855694</v>
       </c>
       <c r="Q3" t="n">
-        <v>10.60944440765002</v>
+        <v>10.60944440764996</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34857,22 +34857,22 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>92.63945645062405</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>174.6339172880153</v>
+        <v>174.6339172880152</v>
       </c>
       <c r="M4" t="n">
-        <v>16.11138312061158</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="N4" t="n">
-        <v>177.8598224851396</v>
+        <v>99.08507489005474</v>
       </c>
       <c r="O4" t="n">
         <v>164.382023673283</v>
       </c>
       <c r="P4" t="n">
-        <v>116.8989542469473</v>
+        <v>116.8989542469472</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -34933,28 +34933,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>63.40697967305434</v>
+        <v>63.40697967305422</v>
       </c>
       <c r="K5" t="n">
-        <v>146.2816544973426</v>
+        <v>146.2816544973425</v>
       </c>
       <c r="L5" t="n">
-        <v>218.7498344398782</v>
+        <v>218.749834439878</v>
       </c>
       <c r="M5" t="n">
-        <v>275.3906701467115</v>
+        <v>275.3906701467113</v>
       </c>
       <c r="N5" t="n">
-        <v>284.5071916056384</v>
+        <v>284.5071916056382</v>
       </c>
       <c r="O5" t="n">
-        <v>255.1821125030726</v>
+        <v>255.1821125030724</v>
       </c>
       <c r="P5" t="n">
-        <v>182.9425333574178</v>
+        <v>182.9425333574176</v>
       </c>
       <c r="Q5" t="n">
-        <v>88.72288372604223</v>
+        <v>88.72288372604211</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35012,28 +35012,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>18.75683649278963</v>
+        <v>18.75683649278955</v>
       </c>
       <c r="K6" t="n">
-        <v>111.0026885100523</v>
+        <v>131.431617000537</v>
       </c>
       <c r="L6" t="n">
-        <v>196.047258895623</v>
+        <v>196.0472588956228</v>
       </c>
       <c r="M6" t="n">
-        <v>248.3302962725775</v>
+        <v>248.3302962725774</v>
       </c>
       <c r="N6" t="n">
-        <v>269.4570470686373</v>
+        <v>269.4570470686372</v>
       </c>
       <c r="O6" t="n">
-        <v>224.0563177862331</v>
+        <v>224.056317786233</v>
       </c>
       <c r="P6" t="n">
-        <v>180.7255269271557</v>
+        <v>160.2965984366704</v>
       </c>
       <c r="Q6" t="n">
-        <v>266.807887996089</v>
+        <v>266.8078879960889</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35094,25 +35094,25 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>127.8323021246942</v>
+        <v>127.8323021246941</v>
       </c>
       <c r="L7" t="n">
-        <v>219.668643278136</v>
+        <v>219.6686432781359</v>
       </c>
       <c r="M7" t="n">
-        <v>242.1038482521223</v>
+        <v>242.1038482521222</v>
       </c>
       <c r="N7" t="n">
-        <v>241.8366714066203</v>
+        <v>241.8366714066202</v>
       </c>
       <c r="O7" t="n">
-        <v>207.1972321662755</v>
+        <v>207.1972321662754</v>
       </c>
       <c r="P7" t="n">
-        <v>153.5347616685302</v>
+        <v>153.5347616685301</v>
       </c>
       <c r="Q7" t="n">
-        <v>22.0216519031386</v>
+        <v>22.02165190313855</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35173,16 +35173,16 @@
         <v>110.2410322142398</v>
       </c>
       <c r="K8" t="n">
-        <v>216.4737587808911</v>
+        <v>216.473758780891</v>
       </c>
       <c r="L8" t="n">
-        <v>305.8293466140561</v>
+        <v>305.829346614056</v>
       </c>
       <c r="M8" t="n">
-        <v>372.283405866206</v>
+        <v>372.2834058662058</v>
       </c>
       <c r="N8" t="n">
-        <v>382.9677530873107</v>
+        <v>382.9677530873105</v>
       </c>
       <c r="O8" t="n">
         <v>348.1556286974043</v>
@@ -35191,7 +35191,7 @@
         <v>262.2932784109608</v>
       </c>
       <c r="Q8" t="n">
-        <v>148.3119886183905</v>
+        <v>148.3119886183904</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35249,28 +35249,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>172.7419126813485</v>
+        <v>46.99934355145141</v>
       </c>
       <c r="K9" t="n">
         <v>158.6780472169991</v>
       </c>
       <c r="L9" t="n">
-        <v>540.3573637819701</v>
+        <v>260.152662181806</v>
       </c>
       <c r="M9" t="n">
-        <v>323.13827825102</v>
+        <v>323.1382782510199</v>
       </c>
       <c r="N9" t="n">
-        <v>346.2449737319515</v>
+        <v>542.1149567261643</v>
       </c>
       <c r="O9" t="n">
-        <v>294.3022689440066</v>
+        <v>294.3022689440065</v>
       </c>
       <c r="P9" t="n">
-        <v>216.6751672332334</v>
+        <v>216.6751672332333</v>
       </c>
       <c r="Q9" t="n">
-        <v>94.41818044892935</v>
+        <v>304.4954681847784</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35349,7 +35349,7 @@
         <v>183.4714556748829</v>
       </c>
       <c r="Q10" t="n">
-        <v>42.74826709349607</v>
+        <v>42.74826709349604</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35404,34 +35404,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J11" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367769</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902946</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243158</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,28 +35486,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>25.73094315394704</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>171.212305634483</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641936</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>633.937336923845</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992797</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071394</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,28 +35565,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K13" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M13" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P13" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q13" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35641,31 +35641,31 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J14" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367769</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L14" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902946</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N14" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243158</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P14" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R14" t="n">
         <v>129.8660843902404</v>
@@ -35720,28 +35720,28 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>500.3288951674329</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
-        <v>603.4126137641936</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.937336923845</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992797</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P15" t="n">
-        <v>188.9220579561613</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -35802,28 +35802,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K16" t="n">
         <v>264.3325884096349</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191335</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N16" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P16" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q16" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35963,10 +35963,10 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>188.9220579561604</v>
       </c>
       <c r="L18" t="n">
-        <v>25.73094315394658</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
@@ -35978,10 +35978,10 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36194,34 +36194,34 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36671,10 +36671,10 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
         <v>500.328895167433</v>
@@ -36686,10 +36686,10 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P27" t="n">
-        <v>188.9220579561604</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
@@ -36905,13 +36905,13 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
         <v>500.328895167433</v>
@@ -36923,10 +36923,10 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P30" t="n">
-        <v>188.9220579561604</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
@@ -37142,7 +37142,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
@@ -37160,7 +37160,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>257.9506595121318</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
@@ -37227,7 +37227,7 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K34" t="n">
-        <v>288.6172359016746</v>
+        <v>288.6172359016747</v>
       </c>
       <c r="L34" t="n">
         <v>418.6266618111712</v>
@@ -37245,7 +37245,7 @@
         <v>319.9164207986647</v>
       </c>
       <c r="Q34" t="n">
-        <v>144.686904791938</v>
+        <v>144.6869047919381</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37379,10 +37379,10 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
         <v>337.2977496678996</v>
@@ -37397,7 +37397,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>409.1088842875408</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
@@ -37467,7 +37467,7 @@
         <v>288.6172359016746</v>
       </c>
       <c r="L37" t="n">
-        <v>418.6266618111712</v>
+        <v>418.6266618111711</v>
       </c>
       <c r="M37" t="n">
         <v>450.5570744930848</v>
@@ -37482,7 +37482,7 @@
         <v>319.9164207986647</v>
       </c>
       <c r="Q37" t="n">
-        <v>144.686904791938</v>
+        <v>144.6869047919381</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37552,7 +37552,7 @@
         <v>735.3001107902948</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193501</v>
       </c>
       <c r="O38" t="n">
         <v>696.488651224316</v>
@@ -37616,10 +37616,10 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
         <v>337.2977496678996</v>
@@ -37634,7 +37634,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>409.1088842875408</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
@@ -37774,10 +37774,10 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J41" t="n">
-        <v>285.7087110396425</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
         <v>479.454324036777</v>
@@ -37853,34 +37853,34 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37938,19 +37938,19 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K43" t="n">
-        <v>288.6172359016746</v>
+        <v>288.6172359016747</v>
       </c>
       <c r="L43" t="n">
-        <v>418.6266618111711</v>
+        <v>418.6266618111712</v>
       </c>
       <c r="M43" t="n">
-        <v>450.5570744930848</v>
+        <v>450.5570744930849</v>
       </c>
       <c r="N43" t="n">
-        <v>445.9107804819471</v>
+        <v>445.9107804819472</v>
       </c>
       <c r="O43" t="n">
-        <v>397.5465471980851</v>
+        <v>397.5465471980852</v>
       </c>
       <c r="P43" t="n">
         <v>319.9164207986647</v>
@@ -38011,31 +38011,31 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J44" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K44" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L44" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M44" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N44" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O44" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P44" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R44" t="n">
         <v>129.8660843902404</v>
@@ -38090,25 +38090,25 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774901</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K45" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678995</v>
       </c>
       <c r="L45" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M45" t="n">
-        <v>603.4126137641938</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238452</v>
+        <v>633.937336923845</v>
       </c>
       <c r="O45" t="n">
-        <v>409.1088842875408</v>
+        <v>256.1654199113578</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
@@ -38175,10 +38175,10 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K46" t="n">
-        <v>288.6172359016746</v>
+        <v>288.6172359016747</v>
       </c>
       <c r="L46" t="n">
-        <v>418.6266618111711</v>
+        <v>418.6266618111712</v>
       </c>
       <c r="M46" t="n">
         <v>450.5570744930848</v>
